--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_69.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_69.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,626 +488,660 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_120</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2913752913752914</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B']]</t>
-        </is>
+          <t>isophonics_174</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_287</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1365740740740741</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:maj/A', 'A#:min', 'A#:7/G#', 'D#:min/F#']]</t>
+          <t>[['D', 'D', 'G', 'D']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(13.42, 23.14)]</t>
+          <t>[['A/b3', 'A/3', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(15.32, 19.12)]</t>
+          <t>[('0:00:08.399000', '0:00:14.292000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:01:05.369945', '0:01:11.679931')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_124</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_64</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2361111111111111</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['F', 'Bb', 'F', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_169</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2753623188405797</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'E']]</t>
+          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(15.124263, 21.811609)]</t>
+          <t>[['G:min', 'C:min', 'G:min', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(74.879, 87.795)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+          <t>[('0:00:01.640000', '0:00:06.700000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:14.520000', '0:00:28.300000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_258</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['E:min', 'A:min', 'E:min']]</t>
-        </is>
+          <t>isophonics_294</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_47</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.08452380952380953</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['B:min', 'E:min/B', 'B:min']]</t>
+          <t>[['G', 'C', 'G/3']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(0.506, 8.175)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(25.48, 32.58)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:22.020589', '0:00:24.598004')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:01.302038', '0:00:05.439841')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_161</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.4166666666666667</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>isophonics_45</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_73</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1248073959938367</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
+          <t>[['D:min', 'G:min', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(1.6, 12.54)]</t>
+          <t>[['B:min', 'E:min', 'A', 'D']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(25.26, 45.54)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:02:16.724000', '0:02:22.877000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:08.435215', '0:00:13.822244')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_207</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_58</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.3809523809523809</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:maj', 'F:maj']]</t>
-        </is>
+          <t>jaah_0</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2660098522167488</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'C']]</t>
+          <t>[['Ab', 'Eb:7', 'Ab']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(4.82, 10.46)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(39.386636, 52.14687)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:25.220000', '0:00:27.170000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:58.320000', '0:00:59.680000')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_136</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.05966228893058161</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['A', 'D/5', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_124</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(0.939, 3.682)]</t>
+          <t>[['F', 'Bb', 'F']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(16.82, 23.18)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:02:22.140000', '0:02:26.800000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:15.124263', '0:00:20.058503')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_2</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_160</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1142241379310345</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['Bb:maj', 'Bb:maj', 'G:min'], ['Bb:7', 'Eb/5', 'Bb:maj'], ['Eb:maj', 'Bb/3', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_12</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4375</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['Ab:maj', 'Ab/7', 'F:min'], ['Eb:7', 'Ab:maj', 'Eb/3'], ['Ab:maj', 'Eb/3', 'F:min']]</t>
+          <t>[['B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(49.16, 62.76), (255.633, 258.257), (83.141, 89.999)]</t>
+          <t>[['E:min', 'B:(3,5,b7,b9)', 'E:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(55.697, 60.759), (26.006, 29.321), (20.996, 24.398)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:00:30.060000', '0:00:43.780000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:01:30.740000', '0:01:49.700000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_48</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jaah_55</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.17825311942959</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D', 'A', 'A', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_107</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.45</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['F', 'C', 'C', 'C']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(85.437167, 93.575761)]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(37.61, 39.54)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:02:18.800000', '0:02:24.460000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:15.027029', '0:00:21.737596')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_77</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_211</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.3736263736263736</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_188</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(48.46, 61.58)]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(0.24, 7.82)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:00:39.020000', '0:00:57.200000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:02:01.740000', '0:02:03.780000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_57</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_17</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.4526315789473684</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G', 'C', 'G', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_139</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_38</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3736263736263736</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>[['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(135.68755, 139.228594)]</t>
+          <t>[['A#', 'D#:min/A#', 'A#', 'D#:min', 'A#', 'D#:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(138.02, 143.32)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:00:00.660000', '0:00:08.220000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:50.820000', '0:01:04.980000')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_180</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.07480106100795755</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(41.38, 43.34)]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(12.06, 17.06)]</t>
+          <t>[('0:01:02.580000', '0:01:09.180000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:01:01.540000', '0:01:07.900000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_97</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_78</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(1.36, 6.46)]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(10.88, 22.2)]</t>
+          <t>[('0:01:00.760000', '0:01:22.800000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:53.120000', '0:01:14.300000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_49</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_276</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.112280701754386</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D', 'A:min', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_128</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_170</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D', 'A:min', 'D']]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(40.700939, 46.703296)]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(21.046451, 26.75856)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+          <t>[('0:00:05.460000', '0:02:06.860000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:04.760000', '0:01:58.780000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_207</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(1.44, 6.84)]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(39.84, 47.28)]</t>
+          <t>[('0:00:16.340000', '0:00:44.360000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:31.260000', '0:00:45.880000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_251</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_78</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1904761904761905</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D', 'G', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_55</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_128</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(7.525011, 12.93526)]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(60.76, 64.36)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_269</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_252</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.3071428571428572</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E', 'A:min', 'D:min', 'E', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G', 'C:min', 'F:min', 'G', 'C:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(44.833, 50.831)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(24.782, 33.878)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>[('0:00:05.360000', '0:01:50.760000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:05.460000', '0:02:06.860000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
